--- a/data/employee_data (3).xlsx
+++ b/data/employee_data (3).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\My_doc\Stage\Projet_suivi_contrats\code_RH\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3BA48C4-1EE0-4008-9FF6-24EA64ABB3E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E666B80A-94DB-4D84-B180-51A6AC183686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$22</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="91">
   <si>
     <t>Nom</t>
   </si>
@@ -290,6 +290,24 @@
   </si>
   <si>
     <t>En cours</t>
+  </si>
+  <si>
+    <t>Échéance</t>
+  </si>
+  <si>
+    <t>Pas d'échéance</t>
+  </si>
+  <si>
+    <t>Contrat expiré</t>
+  </si>
+  <si>
+    <t>&lt; 45 jours</t>
+  </si>
+  <si>
+    <t>&lt; 30 jours</t>
+  </si>
+  <si>
+    <t>&lt; 15 jours</t>
   </si>
 </sst>
 </file>
@@ -361,7 +379,238 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="46">
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -695,7 +944,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
@@ -708,12 +957,12 @@
     <col min="3" max="3" width="21.85546875" customWidth="1"/>
     <col min="4" max="4" width="35.140625" customWidth="1"/>
     <col min="5" max="5" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.140625" customWidth="1"/>
-    <col min="7" max="8" width="20.28515625" customWidth="1"/>
-    <col min="9" max="9" width="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="31.140625" customWidth="1"/>
+    <col min="8" max="9" width="20.28515625" customWidth="1"/>
+    <col min="10" max="10" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -733,16 +982,19 @@
         <v>18</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -761,15 +1013,23 @@
       <c r="F2" s="2">
         <v>46362</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="str">
+        <f ca="1">IF((F2-TODAY())&gt;45,"Pas d'échéance",
+IF((F2-TODAY())&gt;30,"&lt; 45 jours",
+IF((F2-TODAY())&gt;15,"&lt; 30 jours",
+IF((F2-TODAY())&gt;1,"&lt; 15 jours",
+IF((F2-TODAY())&lt;1,IF(AND((F2-TODAY())&lt;1,H2="CDI"),"-","Contrat expiré"))))))</f>
+        <v>Pas d'échéance</v>
+      </c>
+      <c r="H2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="str">
+      <c r="I2" t="str">
         <f ca="1">IF(F2&lt;TODAY(),"Cloturé", "En cours")</f>
         <v>En cours</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -788,18 +1048,26 @@
       <c r="F3" s="2">
         <v>45015</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="2" t="str">
+        <f t="shared" ref="G3:G22" ca="1" si="0">IF((F3-TODAY())&gt;45,"Pas d'échéance",
+IF((F3-TODAY())&gt;30,"&lt; 45 jours",
+IF((F3-TODAY())&gt;15,"&lt; 30 jours",
+IF((F3-TODAY())&gt;1,"&lt; 15 jours",
+IF((F3-TODAY())&lt;1,IF(AND((F3-TODAY())&lt;1,H3="CDI"),"-","Contrat expiré"))))))</f>
+        <v>Contrat expiré</v>
+      </c>
+      <c r="H3" t="s">
         <v>13</v>
       </c>
-      <c r="H3" t="str">
-        <f t="shared" ref="H3:H22" ca="1" si="0">IF(F3&lt;TODAY(),"Cloturé", "En cours")</f>
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I22" ca="1" si="1">IF(F3&lt;TODAY(),"Cloturé", "En cours")</f>
         <v>Cloturé</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -816,17 +1084,21 @@
         <v>44506</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="G4" t="s">
+      <c r="G4" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="H4" t="s">
         <v>14</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>84</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -845,19 +1117,23 @@
       <c r="F5" s="2">
         <v>45064</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Contrat expiré</v>
+      </c>
+      <c r="H5" t="s">
         <v>13</v>
       </c>
-      <c r="H5" t="str">
-        <f t="shared" ca="1" si="0"/>
+      <c r="I5" t="str">
+        <f t="shared" ca="1" si="1"/>
         <v>Cloturé</v>
       </c>
-      <c r="I5" t="str">
+      <c r="J5" t="str">
         <f>D3</f>
         <v>Chef Département Network</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -874,20 +1150,24 @@
         <v>44566</v>
       </c>
       <c r="F6" s="2">
-        <v>45606</v>
-      </c>
-      <c r="G6" t="s">
+        <v>45575</v>
+      </c>
+      <c r="G6" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>&lt; 30 jours</v>
+      </c>
+      <c r="H6" t="s">
         <v>13</v>
       </c>
-      <c r="H6" t="str">
-        <f t="shared" ca="1" si="0"/>
+      <c r="I6" t="str">
+        <f t="shared" ca="1" si="1"/>
         <v>En cours</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -906,19 +1186,23 @@
       <c r="F7" s="2">
         <v>45696</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Pas d'échéance</v>
+      </c>
+      <c r="H7" t="s">
         <v>79</v>
       </c>
-      <c r="H7" t="str">
-        <f t="shared" ca="1" si="0"/>
+      <c r="I7" t="str">
+        <f t="shared" ca="1" si="1"/>
         <v>En cours</v>
       </c>
-      <c r="I7" t="str">
+      <c r="J7" t="str">
         <f>D3</f>
         <v>Chef Département Network</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -937,15 +1221,19 @@
       <c r="F8" s="2">
         <v>45465</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Contrat expiré</v>
+      </c>
+      <c r="H8" t="s">
         <v>13</v>
       </c>
-      <c r="H8" t="str">
-        <f t="shared" ca="1" si="0"/>
+      <c r="I8" t="str">
+        <f t="shared" ca="1" si="1"/>
         <v>Cloturé</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -962,14 +1250,18 @@
         <v>44656</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" t="s">
+      <c r="G9" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="H9" t="s">
         <v>14</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -988,15 +1280,19 @@
       <c r="F10" s="2">
         <v>45514</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Contrat expiré</v>
+      </c>
+      <c r="H10" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="str">
-        <f t="shared" ca="1" si="0"/>
+      <c r="I10" t="str">
+        <f t="shared" ca="1" si="1"/>
         <v>Cloturé</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -1013,21 +1309,25 @@
         <v>44716</v>
       </c>
       <c r="F11" s="2">
-        <v>45656</v>
-      </c>
-      <c r="G11" t="s">
+        <v>45565</v>
+      </c>
+      <c r="G11" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>&lt; 15 jours</v>
+      </c>
+      <c r="H11" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="str">
-        <f t="shared" ca="1" si="0"/>
+      <c r="I11" t="str">
+        <f t="shared" ca="1" si="1"/>
         <v>En cours</v>
       </c>
-      <c r="I11" t="str">
+      <c r="J11" t="str">
         <f>D20</f>
         <v>Chef Département Plan Stratégique</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -1046,18 +1346,22 @@
       <c r="F12" s="2">
         <v>45713</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Pas d'échéance</v>
+      </c>
+      <c r="H12" t="s">
         <v>79</v>
       </c>
-      <c r="H12" t="str">
-        <f t="shared" ca="1" si="0"/>
+      <c r="I12" t="str">
+        <f t="shared" ca="1" si="1"/>
         <v>En cours</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -1076,19 +1380,23 @@
       <c r="F13" s="2">
         <v>45915</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Pas d'échéance</v>
+      </c>
+      <c r="H13" t="s">
         <v>13</v>
       </c>
-      <c r="H13" t="str">
-        <f t="shared" ca="1" si="0"/>
+      <c r="I13" t="str">
+        <f t="shared" ca="1" si="1"/>
         <v>En cours</v>
       </c>
-      <c r="I13" t="str">
+      <c r="J13" t="str">
         <f>D12</f>
         <v>Chef service Qualité</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -1107,19 +1415,23 @@
       <c r="F14" s="2">
         <v>45756</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Pas d'échéance</v>
+      </c>
+      <c r="H14" t="s">
         <v>79</v>
       </c>
-      <c r="H14" t="str">
-        <f t="shared" ca="1" si="0"/>
+      <c r="I14" t="str">
+        <f t="shared" ca="1" si="1"/>
         <v>En cours</v>
       </c>
-      <c r="I14" t="str">
+      <c r="J14" t="str">
         <f>D13</f>
         <v>Chargé d'amélioration Continue</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>68</v>
       </c>
@@ -1138,15 +1450,19 @@
       <c r="F15" s="2">
         <v>45964</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Pas d'échéance</v>
+      </c>
+      <c r="H15" t="s">
         <v>13</v>
       </c>
-      <c r="H15" t="str">
-        <f t="shared" ca="1" si="0"/>
+      <c r="I15" t="str">
+        <f t="shared" ca="1" si="1"/>
         <v>En cours</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>69</v>
       </c>
@@ -1165,19 +1481,23 @@
       <c r="F16" s="2">
         <v>46506</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Pas d'échéance</v>
+      </c>
+      <c r="H16" t="s">
         <v>79</v>
       </c>
-      <c r="H16" t="str">
-        <f t="shared" ca="1" si="0"/>
+      <c r="I16" t="str">
+        <f t="shared" ca="1" si="1"/>
         <v>En cours</v>
       </c>
-      <c r="I16" t="str">
+      <c r="J16" t="str">
         <f>D20</f>
         <v>Chef Département Plan Stratégique</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -1196,19 +1516,23 @@
       <c r="F17" s="2">
         <v>45179</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Contrat expiré</v>
+      </c>
+      <c r="H17" t="s">
         <v>79</v>
       </c>
-      <c r="H17" t="str">
-        <f t="shared" ca="1" si="0"/>
+      <c r="I17" t="str">
+        <f t="shared" ca="1" si="1"/>
         <v>Cloturé</v>
       </c>
-      <c r="I17" t="str">
+      <c r="J17" t="str">
         <f>D16</f>
         <v>Chef service plan stratégie</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>49</v>
       </c>
@@ -1227,18 +1551,22 @@
       <c r="F18" s="2">
         <v>46431</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Pas d'échéance</v>
+      </c>
+      <c r="H18" t="s">
         <v>79</v>
       </c>
-      <c r="H18" t="str">
-        <f t="shared" ca="1" si="0"/>
+      <c r="I18" t="str">
+        <f t="shared" ca="1" si="1"/>
         <v>En cours</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -1257,18 +1585,22 @@
       <c r="F19" s="2">
         <v>46324</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Pas d'échéance</v>
+      </c>
+      <c r="H19" t="s">
         <v>13</v>
       </c>
-      <c r="H19" t="str">
-        <f t="shared" ca="1" si="0"/>
+      <c r="I19" t="str">
+        <f t="shared" ca="1" si="1"/>
         <v>En cours</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>51</v>
       </c>
@@ -1287,18 +1619,22 @@
       <c r="F20" s="2">
         <v>46466</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Pas d'échéance</v>
+      </c>
+      <c r="H20" t="s">
         <v>79</v>
       </c>
-      <c r="H20" t="str">
-        <f t="shared" ca="1" si="0"/>
+      <c r="I20" t="str">
+        <f t="shared" ca="1" si="1"/>
         <v>En cours</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>52</v>
       </c>
@@ -1317,15 +1653,19 @@
       <c r="F21" s="2">
         <v>46523</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Pas d'échéance</v>
+      </c>
+      <c r="H21" t="s">
         <v>79</v>
       </c>
-      <c r="H21" t="str">
-        <f t="shared" ca="1" si="0"/>
+      <c r="I21" t="str">
+        <f t="shared" ca="1" si="1"/>
         <v>En cours</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -1344,28 +1684,176 @@
       <c r="F22" s="2">
         <v>46246</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Pas d'échéance</v>
+      </c>
+      <c r="H22" t="s">
         <v>79</v>
       </c>
-      <c r="H22" t="str">
-        <f t="shared" ca="1" si="0"/>
+      <c r="I22" t="str">
+        <f t="shared" ca="1" si="1"/>
         <v>En cours</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I22" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:J22" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="10" operator="containsText" id="{FD65DDD3-3FD1-4FDF-A676-0948165F4AFD}">
+            <xm:f>NOT(ISERROR(SEARCH(Sheet2!$C$4,G2)))</xm:f>
+            <xm:f>Sheet2!$C$4</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF00B050"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G2:G22</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="9" operator="containsText" id="{52A20BCB-D394-49C0-B892-4E7C6872C603}">
+            <xm:f>NOT(ISERROR(SEARCH($C$6,G1)))</xm:f>
+            <xm:f>$C$6</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFC000"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="8" operator="containsText" id="{F4A32650-B7AE-444C-B3D4-CF26507B2446}">
+            <xm:f>NOT(ISERROR(SEARCH($C$7,G1)))</xm:f>
+            <xm:f>$C$7</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="9" tint="-0.24994659260841701"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="7" operator="containsText" id="{43269550-BB3E-479E-9E49-EE9F9155C38E}">
+            <xm:f>NOT(ISERROR(SEARCH($C$6,G1)))</xm:f>
+            <xm:f>$C$6</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFC000"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="6" operator="containsText" id="{17CB619B-2889-4430-A82F-23781C246295}">
+            <xm:f>NOT(ISERROR(SEARCH($C$7,G1)))</xm:f>
+            <xm:f>$C$7</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="9" tint="-0.24994659260841701"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="5" operator="containsText" id="{720C1484-BE45-4E29-BD29-46E30461290D}">
+            <xm:f>NOT(ISERROR(SEARCH(Sheet2!$C$8,G1)))</xm:f>
+            <xm:f>Sheet2!$C$8</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFF0000"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="4" operator="containsText" id="{F817ED60-8D62-40A6-8DA4-9149B1C4B18E}">
+            <xm:f>NOT(ISERROR(SEARCH(Sheet2!$C$6,G1)))</xm:f>
+            <xm:f>Sheet2!$C$6</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFC000"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{E9036FCB-C338-49C4-83CC-F07F65406FB6}">
+            <xm:f>NOT(ISERROR(SEARCH(Sheet2!$C$7,G1)))</xm:f>
+            <xm:f>Sheet2!$C$7</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="9" tint="-0.24994659260841701"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{CB6468DF-6A04-4197-8260-A012A7F85EEF}">
+            <xm:f>NOT(ISERROR(SEARCH(Sheet2!$C$5,G1)))</xm:f>
+            <xm:f>Sheet2!$C$5</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="1"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{1E8183FF-EFAE-4029-80AA-A6ABB3190B3C}">
+            <xm:f>NOT(ISERROR(SEARCH(Sheet2!$C$4,G1)))</xm:f>
+            <xm:f>Sheet2!$C$4</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF00B050"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G1:G1048576</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0877BEB-60BD-460D-A0E9-67682BFA2FC7}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="C4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/employee_data (3).xlsx
+++ b/data/employee_data (3).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\My_doc\Stage\Projet_suivi_contrats\code_RH\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E666B80A-94DB-4D84-B180-51A6AC183686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0707BCAD-56E8-4804-826B-060068F92652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -379,7 +379,151 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="46">
+  <dxfs count="41">
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color theme="1"/>
@@ -427,11 +571,31 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFFC000"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="9" tint="-0.24994659260841701"/>
       </font>
     </dxf>
@@ -443,161 +607,6 @@
     <dxf>
       <font>
         <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
       </font>
     </dxf>
     <dxf>
@@ -947,7 +956,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1018,7 +1027,7 @@
 IF((F2-TODAY())&gt;30,"&lt; 45 jours",
 IF((F2-TODAY())&gt;15,"&lt; 30 jours",
 IF((F2-TODAY())&gt;1,"&lt; 15 jours",
-IF((F2-TODAY())&lt;1,IF(AND((F2-TODAY())&lt;1,H2="CDI"),"-","Contrat expiré"))))))</f>
+IF((F2-TODAY())&lt;1,IF(AND((F2-TODAY())&lt;1,H2="CDI"),"Pas d'échéance","Contrat expiré"))))))</f>
         <v>Pas d'échéance</v>
       </c>
       <c r="H2" t="s">
@@ -1053,7 +1062,7 @@
 IF((F3-TODAY())&gt;30,"&lt; 45 jours",
 IF((F3-TODAY())&gt;15,"&lt; 30 jours",
 IF((F3-TODAY())&gt;1,"&lt; 15 jours",
-IF((F3-TODAY())&lt;1,IF(AND((F3-TODAY())&lt;1,H3="CDI"),"-","Contrat expiré"))))))</f>
+IF((F3-TODAY())&lt;1,IF(AND((F3-TODAY())&lt;1,H3="CDI"),"Pas d'échéance","Contrat expiré"))))))</f>
         <v>Contrat expiré</v>
       </c>
       <c r="H3" t="s">
@@ -1086,7 +1095,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>-</v>
+        <v>Pas d'échéance</v>
       </c>
       <c r="H4" t="s">
         <v>14</v>
@@ -1252,7 +1261,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>-</v>
+        <v>Pas d'échéance</v>
       </c>
       <c r="H9" t="s">
         <v>14</v>
@@ -1704,19 +1713,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="10" operator="containsText" id="{FD65DDD3-3FD1-4FDF-A676-0948165F4AFD}">
-            <xm:f>NOT(ISERROR(SEARCH(Sheet2!$C$4,G2)))</xm:f>
-            <xm:f>Sheet2!$C$4</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF00B050"/>
-              </font>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>G2:G22</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="9" operator="containsText" id="{52A20BCB-D394-49C0-B892-4E7C6872C603}">
+          <x14:cfRule type="containsText" priority="15" operator="containsText" id="{52A20BCB-D394-49C0-B892-4E7C6872C603}">
             <xm:f>NOT(ISERROR(SEARCH($C$6,G1)))</xm:f>
             <xm:f>$C$6</xm:f>
             <x14:dxf>
@@ -1725,7 +1722,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="8" operator="containsText" id="{F4A32650-B7AE-444C-B3D4-CF26507B2446}">
+          <x14:cfRule type="containsText" priority="14" operator="containsText" id="{F4A32650-B7AE-444C-B3D4-CF26507B2446}">
             <xm:f>NOT(ISERROR(SEARCH($C$7,G1)))</xm:f>
             <xm:f>$C$7</xm:f>
             <x14:dxf>
@@ -1734,7 +1731,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="7" operator="containsText" id="{43269550-BB3E-479E-9E49-EE9F9155C38E}">
+          <x14:cfRule type="containsText" priority="13" operator="containsText" id="{43269550-BB3E-479E-9E49-EE9F9155C38E}">
             <xm:f>NOT(ISERROR(SEARCH($C$6,G1)))</xm:f>
             <xm:f>$C$6</xm:f>
             <x14:dxf>
@@ -1743,7 +1740,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="6" operator="containsText" id="{17CB619B-2889-4430-A82F-23781C246295}">
+          <x14:cfRule type="containsText" priority="12" operator="containsText" id="{17CB619B-2889-4430-A82F-23781C246295}">
             <xm:f>NOT(ISERROR(SEARCH($C$7,G1)))</xm:f>
             <xm:f>$C$7</xm:f>
             <x14:dxf>
@@ -1752,7 +1749,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="5" operator="containsText" id="{720C1484-BE45-4E29-BD29-46E30461290D}">
+          <x14:cfRule type="containsText" priority="11" operator="containsText" id="{720C1484-BE45-4E29-BD29-46E30461290D}">
             <xm:f>NOT(ISERROR(SEARCH(Sheet2!$C$8,G1)))</xm:f>
             <xm:f>Sheet2!$C$8</xm:f>
             <x14:dxf>
@@ -1761,7 +1758,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="4" operator="containsText" id="{F817ED60-8D62-40A6-8DA4-9149B1C4B18E}">
+          <x14:cfRule type="containsText" priority="10" operator="containsText" id="{F817ED60-8D62-40A6-8DA4-9149B1C4B18E}">
             <xm:f>NOT(ISERROR(SEARCH(Sheet2!$C$6,G1)))</xm:f>
             <xm:f>Sheet2!$C$6</xm:f>
             <x14:dxf>
@@ -1770,7 +1767,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{E9036FCB-C338-49C4-83CC-F07F65406FB6}">
+          <x14:cfRule type="containsText" priority="9" operator="containsText" id="{E9036FCB-C338-49C4-83CC-F07F65406FB6}">
             <xm:f>NOT(ISERROR(SEARCH(Sheet2!$C$7,G1)))</xm:f>
             <xm:f>Sheet2!$C$7</xm:f>
             <x14:dxf>
@@ -1779,7 +1776,7 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{CB6468DF-6A04-4197-8260-A012A7F85EEF}">
+          <x14:cfRule type="containsText" priority="8" operator="containsText" id="{CB6468DF-6A04-4197-8260-A012A7F85EEF}">
             <xm:f>NOT(ISERROR(SEARCH(Sheet2!$C$5,G1)))</xm:f>
             <xm:f>Sheet2!$C$5</xm:f>
             <x14:dxf>
@@ -1788,13 +1785,80 @@
               </font>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{1E8183FF-EFAE-4029-80AA-A6ABB3190B3C}">
+          <x14:cfRule type="containsText" priority="7" operator="containsText" id="{1E8183FF-EFAE-4029-80AA-A6ABB3190B3C}">
             <xm:f>NOT(ISERROR(SEARCH(Sheet2!$C$4,G1)))</xm:f>
             <xm:f>Sheet2!$C$4</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FF00B050"/>
               </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G1 G23:G1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="6" operator="containsText" id="{F04FE0C2-9650-478C-A23F-6F084F909D89}">
+            <xm:f>NOT(ISERROR(SEARCH(Sheet2!$C$4,G1)))</xm:f>
+            <xm:f>Sheet2!$C$4</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="mediumGray">
+                  <fgColor rgb="FF00B050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="5" operator="containsText" id="{7A681DF0-2B73-445A-8FB1-8F9F124B2030}">
+            <xm:f>NOT(ISERROR(SEARCH(Sheet2!$C$5,G1)))</xm:f>
+            <xm:f>Sheet2!$C$5</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="solid">
+                  <bgColor theme="1"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="4" operator="containsText" id="{2A9EAD70-4E05-42E9-A3A6-CCBB4885E897}">
+            <xm:f>NOT(ISERROR(SEARCH(Sheet2!$C$5,G1)))</xm:f>
+            <xm:f>Sheet2!$C$5</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="0"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{6266EFDF-90B0-44DB-97EC-5F91BBF3DE90}">
+            <xm:f>NOT(ISERROR(SEARCH(Sheet2!$C$6,G1)))</xm:f>
+            <xm:f>Sheet2!$C$6</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="mediumGray">
+                  <fgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{F79B7904-386A-4664-875A-B7DAC09B5DD7}">
+            <xm:f>NOT(ISERROR(SEARCH(Sheet2!$C$7,G1)))</xm:f>
+            <xm:f>Sheet2!$C$7</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="mediumGray">
+                  <fgColor theme="9" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{8A0E5F2B-9E90-46D7-A290-4B6B3F9D5625}">
+            <xm:f>NOT(ISERROR(SEARCH(Sheet2!$C$8,G1)))</xm:f>
+            <xm:f>Sheet2!$C$8</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill patternType="mediumGray">
+                  <fgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>G1:G1048576</xm:sqref>

--- a/data/employee_data (3).xlsx
+++ b/data/employee_data (3).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\My_doc\Stage\Projet_suivi_contrats\code_RH\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0707BCAD-56E8-4804-826B-060068F92652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78400F89-A778-43D5-AD07-AFA238F7EECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="94">
   <si>
     <t>Nom</t>
   </si>
@@ -308,6 +308,15 @@
   </si>
   <si>
     <t>&lt; 15 jours</t>
+  </si>
+  <si>
+    <t>Adresse mail</t>
+  </si>
+  <si>
+    <t>kevin.zanou@sbin.bj</t>
+  </si>
+  <si>
+    <t>barondegbey94@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -317,7 +326,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -333,6 +342,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -342,7 +359,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -365,84 +382,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="41">
-    <dxf>
-      <fill>
-        <patternFill patternType="mediumGray">
-          <fgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="mediumGray">
-          <fgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="mediumGray">
-          <fgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="15">
     <dxf>
       <fill>
         <patternFill patternType="mediumGray">
           <fgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="mediumGray">
-          <fgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="mediumGray">
-          <fgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -469,46 +444,6 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="mediumGray">
-          <fgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="mediumGray">
-          <fgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="mediumGray">
-          <fgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -562,61 +497,6 @@
     <dxf>
       <font>
         <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
       </font>
     </dxf>
   </dxfs>
@@ -953,10 +833,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -969,9 +849,10 @@
     <col min="6" max="7" width="31.140625" customWidth="1"/>
     <col min="8" max="9" width="20.28515625" customWidth="1"/>
     <col min="10" max="10" width="33" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1002,8 +883,11 @@
       <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1037,8 +921,11 @@
         <f ca="1">IF(F2&lt;TODAY(),"Cloturé", "En cours")</f>
         <v>En cours</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1075,8 +962,11 @@
       <c r="J3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1106,8 +996,11 @@
       <c r="J4" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -1141,8 +1034,11 @@
         <f>D3</f>
         <v>Chef Département Network</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1175,8 +1071,11 @@
       <c r="J6" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -1210,8 +1109,11 @@
         <f>D3</f>
         <v>Chef Département Network</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -1241,8 +1143,11 @@
         <f t="shared" ca="1" si="1"/>
         <v>Cloturé</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -1269,8 +1174,11 @@
       <c r="I9" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -1300,8 +1208,11 @@
         <f t="shared" ca="1" si="1"/>
         <v>Cloturé</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -1335,8 +1246,11 @@
         <f>D20</f>
         <v>Chef Département Plan Stratégique</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -1369,8 +1283,11 @@
       <c r="J12" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -1404,8 +1321,11 @@
         <f>D12</f>
         <v>Chef service Qualité</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -1439,8 +1359,11 @@
         <f>D13</f>
         <v>Chargé d'amélioration Continue</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>68</v>
       </c>
@@ -1470,8 +1393,11 @@
         <f t="shared" ca="1" si="1"/>
         <v>En cours</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>69</v>
       </c>
@@ -1505,8 +1431,11 @@
         <f>D20</f>
         <v>Chef Département Plan Stratégique</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -1540,8 +1469,11 @@
         <f>D16</f>
         <v>Chef service plan stratégie</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>49</v>
       </c>
@@ -1574,8 +1506,11 @@
       <c r="J18" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -1608,8 +1543,11 @@
       <c r="J19" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>51</v>
       </c>
@@ -1642,8 +1580,11 @@
       <c r="J20" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>52</v>
       </c>
@@ -1673,8 +1614,11 @@
         <f t="shared" ca="1" si="1"/>
         <v>En cours</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -1704,11 +1648,27 @@
         <f t="shared" ca="1" si="1"/>
         <v>En cours</v>
       </c>
+      <c r="K22" s="4" t="s">
+        <v>93</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:J22" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{AB48F17B-6C26-4B15-A7DB-123C09C1DD9A}"/>
+    <hyperlink ref="K4" r:id="rId2" xr:uid="{2EAFFC84-7B63-4959-AA88-FCCBDC2D37DD}"/>
+    <hyperlink ref="K6" r:id="rId3" xr:uid="{A4838D67-EFB5-4204-AC59-1AC519E082CF}"/>
+    <hyperlink ref="K8" r:id="rId4" xr:uid="{04E853D5-CD82-4A0B-93B6-A42C95CEA340}"/>
+    <hyperlink ref="K10" r:id="rId5" xr:uid="{E4CD2B92-6B14-4BA0-8BCB-4C0EB5492D4E}"/>
+    <hyperlink ref="K12" r:id="rId6" xr:uid="{BE7CEB05-6E4D-4BBE-95EC-DFE5CBE9BFF4}"/>
+    <hyperlink ref="K14" r:id="rId7" xr:uid="{C6EC7A49-6467-4676-A8E8-6CBC214D070F}"/>
+    <hyperlink ref="K16" r:id="rId8" xr:uid="{DD49B75E-EB86-4676-ACDF-5A45CEE802AE}"/>
+    <hyperlink ref="K18" r:id="rId9" xr:uid="{FF28C47D-0573-4AEA-9765-D2BDFA495FC8}"/>
+    <hyperlink ref="K20" r:id="rId10" xr:uid="{8F783D4B-1F6B-4A74-9F16-38ADF408A809}"/>
+    <hyperlink ref="K22" r:id="rId11" xr:uid="{FC8DCBEA-6EEE-498B-9B0F-C9B3E78F2C49}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
